--- a/results/PRoBERTa.xlsx
+++ b/results/PRoBERTa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\studia\ASMscan\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD3B6D-1F27-4EDD-A5BB-DDF45787289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F34E314-64CB-400D-8EBD-E392CD7D3F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1575" windowWidth="14790" windowHeight="11385" xr2:uid="{08A3FA98-53B7-4932-8B1F-0A56A6CE81B0}"/>
+    <workbookView xWindow="7560" yWindow="1575" windowWidth="14790" windowHeight="11385" firstSheet="4" activeTab="5" xr2:uid="{08A3FA98-53B7-4932-8B1F-0A56A6CE81B0}"/>
   </bookViews>
   <sheets>
     <sheet name="sigma_ntm_domain_test" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>APr</t>
+  </si>
+  <si>
+    <t>PRoBERTa_comb123456</t>
   </si>
 </sst>
 </file>
@@ -445,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C4074E-58CA-4583-AC86-03921B46CE3D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -557,11 +560,11 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.9</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -722,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -756,6 +759,43 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.999</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
@@ -765,15 +805,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D584E9-66BE-41FA-9D67-D31E605738BC}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -877,11 +917,11 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -1042,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -1070,12 +1110,49 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J2:J7)</f>
         <v>0.86363636363636365</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>0.108</v>
+      </c>
+      <c r="E9">
+        <v>0.998</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1085,15 +1162,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E9E0D-C90D-437F-BA63-C9E394881891}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,11 +1274,11 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -1362,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -1396,6 +1473,44 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.999</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1405,15 +1520,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44041BC-CA19-4F5D-B5DA-DECB96FC2C6B}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,11 +1632,11 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -1682,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -1716,6 +1831,44 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.997</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1725,15 +1878,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F707C49-9FEB-4F53-82B0-58BFD876DC73}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,11 +1990,11 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -2002,7 +2155,7 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -2036,6 +2189,44 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>0.182</v>
+      </c>
+      <c r="E9">
+        <v>0.997</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2045,15 +2236,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB411B0-89AB-4BD1-AAAF-B042DC86F3A3}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2157,11 +2348,11 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">F3/(F3+I3)</f>
+        <f t="shared" ref="J3:J9" si="0">F3/(F3+I3)</f>
         <v>0.85314685314685312</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">G3/(G3+H3)</f>
+        <f t="shared" ref="K3:K9" si="1">G3/(G3+H3)</f>
         <v>3.6319058814919176E-3</v>
       </c>
     </row>
@@ -2322,7 +2513,7 @@
         <v>143</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="2">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C8:K9" si="2">AVERAGE(C2:C7)</f>
         <v>437236</v>
       </c>
       <c r="D8">
@@ -2356,6 +2547,44 @@
       <c r="K8">
         <f t="shared" si="2"/>
         <v>3.6387671646433504E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>437236</v>
+      </c>
+      <c r="D9">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.999</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>917</v>
+      </c>
+      <c r="H9">
+        <v>436319</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.8951048951048951</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0972655499547155E-3</v>
       </c>
     </row>
   </sheetData>
